--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Profile</t>
   </si>
@@ -47,28 +47,49 @@
     <t>Method</t>
   </si>
   <si>
+    <t>t-cabs-observation-af</t>
+  </si>
+  <si>
+    <t>T-CABS Observation AF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#250810003, null#19840-8, null#152490</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>t-cabs-observation-ahi</t>
   </si>
   <si>
     <t>T-CABS Observation AHI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>null#774099003, null#90564-6, null#null</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
     <t>Periodĵ</t>
   </si>
   <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
+    <t>t-cabs-observation-amv</t>
+  </si>
+  <si>
+    <t>T-CABS Observation AMV</t>
+  </si>
+  <si>
+    <t>null#250875001, null#76009-0, null#152004</t>
   </si>
   <si>
     <t>t-cabs-observation-beatmungsstunden</t>
@@ -229,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -325,7 +346,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>17</v>
@@ -342,10 +363,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -354,7 +375,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>15</v>
@@ -377,10 +398,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -389,13 +410,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>17</v>
@@ -407,6 +428,76 @@
         <v>13</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
   <si>
     <t>Profile</t>
   </si>
@@ -92,6 +92,42 @@
     <t>null#250875001, null#76009-0, null#152004</t>
   </si>
   <si>
+    <t>t-cabs-observation-arterieller-blutdruck</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Arterieller Blutdruck</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>null#85354-9, null#75367002, null#364090009</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6, LOINC#8480-6, SNOMED CT#271649006, ISO 11073-10101 Health informatics - Point-of-care#150017</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4, LOINC#8462-4, SNOMED CT#271650006, ISO 11073-10101 Health informatics - Point-of-care#150018</t>
+  </si>
+  <si>
+    <t>LOINC#8478-0, LOINC#8478-0, SNOMED CT#6797001, ISO 11073-10101 Health informatics - Point-of-care#150019</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-atemfrequenz</t>
+  </si>
+  <si>
+    <t>Atemfrequenz</t>
+  </si>
+  <si>
+    <t>null#9279-1, null#86290005</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
     <t>t-cabs-observation-beatmungsstunden</t>
   </si>
   <si>
@@ -101,6 +137,39 @@
     <t>null#261774000, null#null, null#null</t>
   </si>
   <si>
+    <t>t-cabs-observation-bmi</t>
+  </si>
+  <si>
+    <t>BMI Observation</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-gehstrecke</t>
+  </si>
+  <si>
+    <t>Gehstrecke</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity, Observation Category Codes#vital-signs, LOINC#85353-1</t>
+  </si>
+  <si>
+    <t>https://gematik.de/fhir/isik/ValueSet/vs-mii-icu-code-monitoring-und-vitaldaten-iso11073 (required)</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-herzfrequenz</t>
+  </si>
+  <si>
+    <t>T_CABS_Observation_Herzfrequenz</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs, LOINC#85353-1</t>
+  </si>
+  <si>
+    <t>null#364075005, null#8867-4, null#147842</t>
+  </si>
+  <si>
     <t>t-cabs-observation-leckage</t>
   </si>
   <si>
@@ -110,6 +179,15 @@
     <t>null#null, null#76296-3, null#152432</t>
   </si>
   <si>
+    <t>t-cabs-observation-spo2</t>
+  </si>
+  <si>
+    <t>T-CABS Observation SPO2</t>
+  </si>
+  <si>
+    <t>null#2708-6, null#null, null#59408-5, null#150324</t>
+  </si>
+  <si>
     <t>t-cabs-observation-triggeredbreaths</t>
   </si>
   <si>
@@ -117,6 +195,15 @@
   </si>
   <si>
     <t>null#250878004, null#LA20140-2, null#null</t>
+  </si>
+  <si>
+    <t>t-cabs-observationfev1</t>
+  </si>
+  <si>
+    <t>FEV1 Observation</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs, Observation Category Codes#vital-signs, LOINC#85353-1</t>
   </si>
 </sst>
 </file>
@@ -250,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -404,25 +491,25 @@
         <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>13</v>
@@ -433,10 +520,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -448,10 +535,10 @@
         <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -468,36 +555,386 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="F7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
+      <c r="F8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="F7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="2">
+      <c r="B9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -47,85 +47,85 @@
     <t>Method</t>
   </si>
   <si>
-    <t>t-cabs-observation-af</t>
+    <t>t-cabs-observation-ahi</t>
+  </si>
+  <si>
+    <t>T-CABS Observation AHI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#774099003, null#90564-6, null#null</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>Periodĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-amv</t>
+  </si>
+  <si>
+    <t>T-CABS Observation AMV</t>
+  </si>
+  <si>
+    <t>null#250875001, null#76009-0, null#152004</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-arterieller-blutdruck</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Arterieller Blutdruck</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>null#85354-9, null#75367002, null#364090009</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6, LOINC#8480-6, SNOMED CT#271649006, ISO 11073-10101 Health informatics - Point-of-care#150017</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4, LOINC#8462-4, SNOMED CT#271650006, ISO 11073-10101 Health informatics - Point-of-care#150018</t>
+  </si>
+  <si>
+    <t>LOINC#8478-0, LOINC#8478-0, SNOMED CT#6797001, ISO 11073-10101 Health informatics - Point-of-care#150019</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-atemfrequenz</t>
+  </si>
+  <si>
+    <t>Atemfrequenz</t>
+  </si>
+  <si>
+    <t>null#9279-1, null#86290005</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-atemfrequenz-beatmet</t>
   </si>
   <si>
     <t>T-CABS Observation AF</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>null#250810003, null#19840-8, null#152490</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-ahi</t>
-  </si>
-  <si>
-    <t>T-CABS Observation AHI</t>
-  </si>
-  <si>
-    <t>null#774099003, null#90564-6, null#null</t>
-  </si>
-  <si>
-    <t>Periodĵ</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-amv</t>
-  </si>
-  <si>
-    <t>T-CABS Observation AMV</t>
-  </si>
-  <si>
-    <t>null#250875001, null#76009-0, null#152004</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-arterieller-blutdruck</t>
-  </si>
-  <si>
-    <t>T-CABS Observation Arterieller Blutdruck</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>null#85354-9, null#75367002, null#364090009</t>
-  </si>
-  <si>
-    <t>prohibited</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6, LOINC#8480-6, SNOMED CT#271649006, ISO 11073-10101 Health informatics - Point-of-care#150017</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4, LOINC#8462-4, SNOMED CT#271650006, ISO 11073-10101 Health informatics - Point-of-care#150018</t>
-  </si>
-  <si>
-    <t>LOINC#8478-0, LOINC#8478-0, SNOMED CT#6797001, ISO 11073-10101 Health informatics - Point-of-care#150019</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-atemfrequenz</t>
-  </si>
-  <si>
-    <t>Atemfrequenz</t>
-  </si>
-  <si>
-    <t>null#9279-1, null#86290005</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+    <t>null#9279-1, null#250810003, null#19840-8, null#152490</t>
   </si>
   <si>
     <t>t-cabs-observation-beatmungsstunden</t>
@@ -456,25 +456,25 @@
         <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>13</v>
@@ -485,31 +485,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="F5" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>13</v>
@@ -523,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -532,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>13</v>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>13</v>
@@ -590,13 +590,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>13</v>
@@ -605,13 +605,13 @@
         <v>33</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -625,28 +625,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>15</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -678,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>17</v>
@@ -701,7 +701,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>13</v>
@@ -748,7 +748,7 @@
         <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>17</v>
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>17</v>
@@ -841,7 +841,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>13</v>
@@ -853,10 +853,10 @@
         <v>15</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -888,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>17</v>
@@ -923,7 +923,7 @@
         <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="104">
   <si>
     <t>Profile</t>
   </si>
@@ -56,67 +56,127 @@
     <t/>
   </si>
   <si>
-    <t>null#774099003, null#90564-6, null#null</t>
+    <t>null#8410792</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/pocd/ValueSet/11073MDC-metric (extensible)</t>
+  </si>
+  <si>
+    <t>Periodĵ, dateTime, instant</t>
+  </si>
+  <si>
+    <t>Quantityĵ, Ratioĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-amv</t>
+  </si>
+  <si>
+    <t>T-CABS Observation AMV</t>
+  </si>
+  <si>
+    <t>null#151996</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-arteriellerblutdruck</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Arterieller Blutdruck</t>
+  </si>
+  <si>
+    <t>PHD Observation Categories Code System#phd-observation, PHD Observation Categories Code System#phd-observation, Observation Category Codes#vital-signs, Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>null#150016, null#85354-9</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
   </si>
   <si>
-    <t>Periodĵ</t>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68193</t>
   </si>
   <si>
     <t>Quantityĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-amv</t>
-  </si>
-  <si>
-    <t>T-CABS Observation AMV</t>
-  </si>
-  <si>
-    <t>null#250875001, null#76009-0, null#152004</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-arterieller-blutdruck</t>
-  </si>
-  <si>
-    <t>T-CABS Observation Arterieller Blutdruck</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>null#85354-9, null#75367002, null#364090009</t>
-  </si>
-  <si>
-    <t>prohibited</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6, LOINC#8480-6, SNOMED CT#271649006, ISO 11073-10101 Health informatics - Point-of-care#150017</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4, LOINC#8462-4, SNOMED CT#271650006, ISO 11073-10101 Health informatics - Point-of-care#150018</t>
-  </si>
-  <si>
-    <t>LOINC#8478-0, LOINC#8478-0, SNOMED CT#6797001, ISO 11073-10101 Health informatics - Point-of-care#150019</t>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#67985</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68073</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#67914</t>
+  </si>
+  <si>
+    <t>Rangeĵ</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#67892</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68104</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68236</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68232</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>LOINC#8478-0</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-arteriellespo2</t>
+  </si>
+  <si>
+    <t>T-CABS Observation SPO2</t>
+  </si>
+  <si>
+    <t>null#160300, null#2708-6</t>
+  </si>
+  <si>
+    <t>SNOMED CT#11527006</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>t-cabs-observation-atemfrequenz</t>
   </si>
   <si>
-    <t>Atemfrequenz</t>
-  </si>
-  <si>
-    <t>null#9279-1, null#86290005</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+    <t>T-CABS Observation Atemfrequenz</t>
+  </si>
+  <si>
+    <t>null#152490, null#9279-1</t>
   </si>
   <si>
     <t>t-cabs-observation-atemfrequenz-beatmet</t>
@@ -125,49 +185,85 @@
     <t>T-CABS Observation AF</t>
   </si>
   <si>
-    <t>null#9279-1, null#250810003, null#19840-8, null#152490</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-beatmungsstunden</t>
-  </si>
-  <si>
-    <t>T-CABS Observation Beatmungsstunden</t>
-  </si>
-  <si>
-    <t>null#261774000, null#null, null#null</t>
+    <t>null#151586</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-atemzeitverhaeltnis</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Atemzeitverhaeltnis</t>
+  </si>
+  <si>
+    <t>null#153500</t>
   </si>
   <si>
     <t>t-cabs-observation-bmi</t>
   </si>
   <si>
-    <t>BMI Observation</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+    <t>T-CABS Observation BMI</t>
+  </si>
+  <si>
+    <t>null#188752, null#39156-5</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-druck-minmax</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Druck MIN/MAX</t>
+  </si>
+  <si>
+    <t>null#151792</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#151794</t>
+  </si>
+  <si>
+    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#151793</t>
   </si>
   <si>
     <t>t-cabs-observation-gehstrecke</t>
   </si>
   <si>
-    <t>Gehstrecke</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#activity, Observation Category Codes#vital-signs, LOINC#85353-1</t>
-  </si>
-  <si>
-    <t>https://gematik.de/fhir/isik/ValueSet/vs-mii-icu-code-monitoring-und-vitaldaten-iso11073 (required)</t>
+    <t>T-CABS Observation Gehstrecke</t>
+  </si>
+  <si>
+    <t>null#158033, null#41950-7</t>
   </si>
   <si>
     <t>t-cabs-observation-herzfrequenz</t>
   </si>
   <si>
-    <t>T_CABS_Observation_Herzfrequenz</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs, LOINC#85353-1</t>
-  </si>
-  <si>
-    <t>null#364075005, null#8867-4, null#147842</t>
+    <t>T-CABS Observation Herzfrequenz</t>
+  </si>
+  <si>
+    <t>null#147842, null#8867-4</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-ipap</t>
+  </si>
+  <si>
+    <t>T-CABS Observation IPAP</t>
+  </si>
+  <si>
+    <t>null#8410976</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-koerpergewicht</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Koerpergewicht</t>
+  </si>
+  <si>
+    <t>null#188800, null#29463-7</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-koerpertemperatur</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Koerpertemperatur</t>
+  </si>
+  <si>
+    <t>null#150364, null#8310-5</t>
   </si>
   <si>
     <t>t-cabs-observation-leckage</t>
@@ -176,16 +272,34 @@
     <t>T-CABS Observation Leckage</t>
   </si>
   <si>
-    <t>null#null, null#76296-3, null#152432</t>
-  </si>
-  <si>
-    <t>t-cabs-observation-spo2</t>
-  </si>
-  <si>
-    <t>T-CABS Observation SPO2</t>
-  </si>
-  <si>
-    <t>null#2708-6, null#null, null#59408-5, null#150324</t>
+    <t>null#152432</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-peep</t>
+  </si>
+  <si>
+    <t>T-CABS Observation PEEP</t>
+  </si>
+  <si>
+    <t>null#152720</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-targetvolume</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Target Volume</t>
+  </si>
+  <si>
+    <t>null#153212</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-ti</t>
+  </si>
+  <si>
+    <t>T-CABS Observation TI</t>
+  </si>
+  <si>
+    <t>null#152416</t>
   </si>
   <si>
     <t>t-cabs-observation-triggeredbreaths</t>
@@ -194,16 +308,22 @@
     <t>T-CABS Observation TriggeredBreaths</t>
   </si>
   <si>
-    <t>null#250878004, null#LA20140-2, null#null</t>
+    <t>null#152498</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-vitalparameter</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Vitalparamter</t>
   </si>
   <si>
     <t>t-cabs-observationfev1</t>
   </si>
   <si>
-    <t>FEV1 Observation</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs, Observation Category Codes#vital-signs, LOINC#85353-1</t>
+    <t>T-CABS Observation FEV1</t>
+  </si>
+  <si>
+    <t>null#152586, null#20150-9</t>
   </si>
 </sst>
 </file>
@@ -337,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -465,16 +585,16 @@
         <v>26</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>13</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>13</v>
@@ -497,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>13</v>
@@ -506,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -515,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>13</v>
@@ -541,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -550,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>13</v>
@@ -576,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -585,68 +705,68 @@
         <v>13</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s" s="2">
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -660,10 +780,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -672,16 +792,16 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -690,18 +810,18 @@
         <v>13</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>13</v>
@@ -710,13 +830,13 @@
         <v>13</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -725,18 +845,18 @@
         <v>13</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>13</v>
@@ -745,13 +865,13 @@
         <v>13</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -760,33 +880,33 @@
         <v>13</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -795,15 +915,15 @@
         <v>13</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -812,16 +932,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -835,28 +955,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -870,10 +990,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -882,16 +1002,16 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -905,37 +1025,3537 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B39" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C39" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="D17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s" s="2">
+      <c r="F39" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H72" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>13</v>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="118">
   <si>
     <t>Profile</t>
   </si>
@@ -86,7 +86,7 @@
     <t>t-cabs-observation-arteriellerblutdruck</t>
   </si>
   <si>
-    <t>T-CABS Observation Arterieller Blutdruck</t>
+    <t>T-CABS Observation Arterial Blood Pressure</t>
   </si>
   <si>
     <t>PHD Observation Categories Code System#phd-observation, PHD Observation Categories Code System#phd-observation, Observation Category Codes#vital-signs, Observation Category Codes#vital-signs</t>
@@ -104,37 +104,19 @@
     <t>CodeableConceptĵ</t>
   </si>
   <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68193</t>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#68193</t>
   </si>
   <si>
     <t>Quantityĵ</t>
   </si>
   <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#67985</t>
-  </si>
-  <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68073</t>
-  </si>
-  <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#67914</t>
-  </si>
-  <si>
-    <t>Rangeĵ</t>
-  </si>
-  <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#67892</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68104</t>
-  </si>
-  <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68236</t>
-  </si>
-  <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#68232</t>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#67985</t>
+  </si>
+  <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#68073</t>
+  </si>
+  <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#67914</t>
   </si>
   <si>
     <t>LOINC#8480-6</t>
@@ -167,13 +149,25 @@
     <t>Range</t>
   </si>
   <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#67892</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#68104</t>
+  </si>
+  <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#68236</t>
+  </si>
+  <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#68232</t>
+  </si>
+  <si>
     <t>t-cabs-observation-atemfrequenz</t>
   </si>
   <si>
-    <t>T-CABS Observation Atemfrequenz</t>
+    <t>T-CABS Observation Respiratory Rate</t>
   </si>
   <si>
     <t>null#152490, null#9279-1</t>
@@ -182,7 +176,7 @@
     <t>t-cabs-observation-atemfrequenz-beatmet</t>
   </si>
   <si>
-    <t>T-CABS Observation AF</t>
+    <t>T-CABS Observation Respiratory Rate Ventilated</t>
   </si>
   <si>
     <t>null#151586</t>
@@ -191,7 +185,7 @@
     <t>t-cabs-observation-atemzeitverhaeltnis</t>
   </si>
   <si>
-    <t>T-CABS Observation Atemzeitverhaeltnis</t>
+    <t>T-CABS Observation Respiratory Time Ratio</t>
   </si>
   <si>
     <t>null#153500</t>
@@ -209,22 +203,25 @@
     <t>t-cabs-observation-druck-minmax</t>
   </si>
   <si>
-    <t>T-CABS Observation Druck MIN/MAX</t>
+    <t>T-CABS Observation Pressure MIN/MAX</t>
   </si>
   <si>
     <t>null#151792</t>
   </si>
   <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#151794</t>
-  </si>
-  <si>
-    <t>ISO/IEEE 11073 Medical Device Communication Nomenclature#151793</t>
+    <t>Periodĵ, dateTime</t>
+  </si>
+  <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#151794</t>
+  </si>
+  <si>
+    <t>ISO 11073-10101 Health informatics - Point-of-care#151793</t>
   </si>
   <si>
     <t>t-cabs-observation-gehstrecke</t>
   </si>
   <si>
-    <t>T-CABS Observation Gehstrecke</t>
+    <t>T-CABS Observation Walking Distance</t>
   </si>
   <si>
     <t>null#158033, null#41950-7</t>
@@ -233,7 +230,7 @@
     <t>t-cabs-observation-herzfrequenz</t>
   </si>
   <si>
-    <t>T-CABS Observation Herzfrequenz</t>
+    <t>T-CABS Observation Heart Rate</t>
   </si>
   <si>
     <t>null#147842, null#8867-4</t>
@@ -251,7 +248,7 @@
     <t>t-cabs-observation-koerpergewicht</t>
   </si>
   <si>
-    <t>T-CABS Observation Koerpergewicht</t>
+    <t>T-CABS Observation Body Weight</t>
   </si>
   <si>
     <t>null#188800, null#29463-7</t>
@@ -260,7 +257,7 @@
     <t>t-cabs-observation-koerpertemperatur</t>
   </si>
   <si>
-    <t>T-CABS Observation Koerpertemperatur</t>
+    <t>T-CABS Observation Body Temperature</t>
   </si>
   <si>
     <t>null#150364, null#8310-5</t>
@@ -269,7 +266,7 @@
     <t>t-cabs-observation-leckage</t>
   </si>
   <si>
-    <t>T-CABS Observation Leckage</t>
+    <t>T-CABS Observation Leakage</t>
   </si>
   <si>
     <t>null#152432</t>
@@ -305,7 +302,7 @@
     <t>t-cabs-observation-triggeredbreaths</t>
   </si>
   <si>
-    <t>T-CABS Observation TriggeredBreaths</t>
+    <t>T-CABS Observation Triggered Breaths</t>
   </si>
   <si>
     <t>null#152498</t>
@@ -314,7 +311,13 @@
     <t>t-cabs-observation-vitalparameter</t>
   </si>
   <si>
-    <t>T-CABS Observation Vitalparamter</t>
+    <t>T-CABS Observation Vital Parameter</t>
+  </si>
+  <si>
+    <t>t-cabs-observation-vitalparametermitkomponenten</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Vital Parameter with Components</t>
   </si>
   <si>
     <t>t-cabs-observationfev1</t>
@@ -324,6 +327,45 @@
   </si>
   <si>
     <t>null#152586, null#20150-9</t>
+  </si>
+  <si>
+    <t>t-cabs-observationfev1fef25-75</t>
+  </si>
+  <si>
+    <t>T-CABS Observation FEF25-75</t>
+  </si>
+  <si>
+    <t>null#188960, null#69971-0</t>
+  </si>
+  <si>
+    <t>t-cabs-observationfev1fev6</t>
+  </si>
+  <si>
+    <t>T-CABS Observation FEV1/FEV6</t>
+  </si>
+  <si>
+    <t>null#188936, null#65658-7</t>
+  </si>
+  <si>
+    <t>t-cabs-observationfev6</t>
+  </si>
+  <si>
+    <t>T-CABS Observation FEV6</t>
+  </si>
+  <si>
+    <t>null#189064, null#65655-3</t>
+  </si>
+  <si>
+    <t>t-cabs-observationhandgriffstaerke</t>
+  </si>
+  <si>
+    <t>T-CABS Observation Hand Grip Strength</t>
+  </si>
+  <si>
+    <t>null#8455547, null#251433001</t>
+  </si>
+  <si>
+    <t>SNOMED CT#85562004</t>
   </si>
 </sst>
 </file>
@@ -457,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -740,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -766,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -775,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -792,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
@@ -801,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -810,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -827,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
@@ -836,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -845,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -862,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>13</v>
@@ -871,7 +913,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -880,42 +922,42 @@
         <v>13</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -923,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -932,7 +974,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>13</v>
@@ -941,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -950,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -958,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -967,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>13</v>
@@ -976,7 +1018,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -985,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -993,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -1002,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>13</v>
@@ -1011,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1020,42 +1062,42 @@
         <v>13</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1063,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1081,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1090,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1098,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1116,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1125,7 +1167,7 @@
         <v>13</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -1133,26 +1175,26 @@
         <v>13</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
       </c>
@@ -1160,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -1168,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1186,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1195,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1203,60 +1245,60 @@
         <v>13</v>
       </c>
       <c r="B22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s" s="2">
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1265,7 +1307,7 @@
         <v>13</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1273,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1291,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1300,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1308,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1326,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1335,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1343,7 +1385,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1361,7 +1403,7 @@
         <v>13</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1370,33 +1412,33 @@
         <v>13</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1405,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1431,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1440,7 +1482,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1448,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1466,7 +1508,7 @@
         <v>13</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1475,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1483,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1501,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1510,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -1518,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1536,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1545,7 +1587,7 @@
         <v>13</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -1553,7 +1595,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1571,24 +1613,24 @@
         <v>13</v>
       </c>
       <c r="H32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1597,16 +1639,16 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1615,15 +1657,15 @@
         <v>13</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1632,16 +1674,16 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1650,33 +1692,33 @@
         <v>13</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1685,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1693,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -1711,7 +1753,7 @@
         <v>13</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1720,15 +1762,15 @@
         <v>13</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -1737,16 +1779,16 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1755,15 +1797,15 @@
         <v>13</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -1772,16 +1814,16 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1790,33 +1832,33 @@
         <v>13</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1825,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -1833,7 +1875,7 @@
         <v>13</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>13</v>
@@ -1851,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1860,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1868,7 +1910,7 @@
         <v>13</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -1886,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1895,7 +1937,7 @@
         <v>13</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1903,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -1921,7 +1963,7 @@
         <v>13</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -1930,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1938,7 +1980,7 @@
         <v>13</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>13</v>
@@ -1956,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -1965,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1973,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>13</v>
@@ -1991,24 +2033,24 @@
         <v>13</v>
       </c>
       <c r="H44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>13</v>
@@ -2017,16 +2059,16 @@
         <v>13</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2035,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -2043,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>13</v>
@@ -2052,7 +2094,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>13</v>
@@ -2061,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2070,7 +2112,7 @@
         <v>13</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2078,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>13</v>
@@ -2087,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>13</v>
@@ -2096,7 +2138,7 @@
         <v>13</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2105,33 +2147,33 @@
         <v>13</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2140,15 +2182,15 @@
         <v>13</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>13</v>
@@ -2157,16 +2199,16 @@
         <v>13</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2175,7 +2217,7 @@
         <v>13</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -2183,7 +2225,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>13</v>
@@ -2192,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>13</v>
@@ -2201,7 +2243,7 @@
         <v>13</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2210,7 +2252,7 @@
         <v>13</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -2218,7 +2260,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2227,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>13</v>
@@ -2236,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2245,33 +2287,33 @@
         <v>13</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="C52" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2280,7 +2322,7 @@
         <v>13</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -2288,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
@@ -2306,7 +2348,7 @@
         <v>13</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2315,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -2323,7 +2365,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>13</v>
@@ -2341,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2350,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -2358,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>13</v>
@@ -2376,7 +2418,7 @@
         <v>13</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2385,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
@@ -2393,7 +2435,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>13</v>
@@ -2411,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2420,7 +2462,7 @@
         <v>13</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
@@ -2428,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2446,42 +2488,42 @@
         <v>13</v>
       </c>
       <c r="H57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2490,7 +2532,7 @@
         <v>13</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2540,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>13</v>
@@ -2516,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2525,7 +2567,7 @@
         <v>13</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -2533,7 +2575,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>13</v>
@@ -2551,7 +2593,7 @@
         <v>13</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2560,7 +2602,7 @@
         <v>13</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -2568,7 +2610,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>13</v>
@@ -2586,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2595,33 +2637,33 @@
         <v>13</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B62" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="C62" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -2630,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -2638,7 +2680,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>13</v>
@@ -2656,7 +2698,7 @@
         <v>13</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -2665,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -2673,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>13</v>
@@ -2691,7 +2733,7 @@
         <v>13</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -2700,7 +2742,7 @@
         <v>13</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -2708,7 +2750,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>13</v>
@@ -2726,7 +2768,7 @@
         <v>13</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -2735,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
@@ -2743,7 +2785,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>13</v>
@@ -2761,7 +2803,7 @@
         <v>13</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -2770,7 +2812,7 @@
         <v>13</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67">
@@ -2778,7 +2820,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>13</v>
@@ -2796,24 +2838,24 @@
         <v>13</v>
       </c>
       <c r="H67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>13</v>
@@ -2822,16 +2864,16 @@
         <v>13</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -2840,33 +2882,33 @@
         <v>13</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -2875,7 +2917,7 @@
         <v>13</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -2883,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>13</v>
@@ -2901,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -2910,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
@@ -2918,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>13</v>
@@ -2936,7 +2978,7 @@
         <v>13</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>18</v>
@@ -2945,15 +2987,15 @@
         <v>13</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>13</v>
@@ -2962,16 +3004,16 @@
         <v>13</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>18</v>
@@ -2980,33 +3022,33 @@
         <v>13</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="C73" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>18</v>
@@ -3015,7 +3057,7 @@
         <v>13</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -3023,7 +3065,7 @@
         <v>13</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>13</v>
@@ -3041,7 +3083,7 @@
         <v>13</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -3050,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3058,7 +3100,7 @@
         <v>13</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>13</v>
@@ -3076,7 +3118,7 @@
         <v>13</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3085,7 +3127,7 @@
         <v>13</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
@@ -3093,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>13</v>
@@ -3111,7 +3153,7 @@
         <v>13</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3120,7 +3162,7 @@
         <v>13</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
@@ -3128,7 +3170,7 @@
         <v>13</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>13</v>
@@ -3146,7 +3188,7 @@
         <v>13</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3155,7 +3197,7 @@
         <v>13</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78">
@@ -3163,7 +3205,7 @@
         <v>13</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>13</v>
@@ -3181,42 +3223,42 @@
         <v>13</v>
       </c>
       <c r="H78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3225,7 +3267,7 @@
         <v>13</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -3233,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>13</v>
@@ -3251,7 +3293,7 @@
         <v>13</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>18</v>
@@ -3260,7 +3302,7 @@
         <v>13</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -3268,7 +3310,7 @@
         <v>13</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>13</v>
@@ -3286,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>18</v>
@@ -3295,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -3303,7 +3345,7 @@
         <v>13</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>13</v>
@@ -3321,7 +3363,7 @@
         <v>13</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>18</v>
@@ -3330,33 +3372,33 @@
         <v>13</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="B83" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="C83" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>18</v>
@@ -3365,7 +3407,7 @@
         <v>13</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -3373,7 +3415,7 @@
         <v>13</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>13</v>
@@ -3391,7 +3433,7 @@
         <v>13</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3400,7 +3442,7 @@
         <v>13</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -3408,7 +3450,7 @@
         <v>13</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>13</v>
@@ -3426,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>18</v>
@@ -3435,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
@@ -3443,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>13</v>
@@ -3461,7 +3503,7 @@
         <v>13</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>18</v>
@@ -3470,7 +3512,7 @@
         <v>13</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
@@ -3478,7 +3520,7 @@
         <v>13</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>13</v>
@@ -3496,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>18</v>
@@ -3505,7 +3547,7 @@
         <v>13</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
@@ -3513,7 +3555,7 @@
         <v>13</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>13</v>
@@ -3531,24 +3573,24 @@
         <v>13</v>
       </c>
       <c r="H88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>13</v>
@@ -3557,16 +3599,16 @@
         <v>13</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>18</v>
@@ -3575,15 +3617,15 @@
         <v>13</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>13</v>
@@ -3592,16 +3634,16 @@
         <v>13</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>18</v>
@@ -3610,15 +3652,15 @@
         <v>13</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>13</v>
@@ -3627,16 +3669,16 @@
         <v>13</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>18</v>
@@ -3645,15 +3687,15 @@
         <v>13</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>13</v>
@@ -3662,16 +3704,16 @@
         <v>13</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -3680,15 +3722,15 @@
         <v>13</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>13</v>
@@ -3697,7 +3739,7 @@
         <v>13</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>15</v>
@@ -3720,28 +3762,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>18</v>
@@ -3755,10 +3797,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>13</v>
@@ -3767,16 +3809,16 @@
         <v>13</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>18</v>
@@ -3785,15 +3827,15 @@
         <v>13</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>13</v>
@@ -3802,16 +3844,16 @@
         <v>13</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>18</v>
@@ -3820,15 +3862,15 @@
         <v>13</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>13</v>
@@ -3837,16 +3879,16 @@
         <v>13</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>18</v>
@@ -3855,18 +3897,18 @@
         <v>13</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B98" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="C98" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>13</v>
@@ -3875,13 +3917,13 @@
         <v>13</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>18</v>
@@ -3890,7 +3932,7 @@
         <v>13</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -3898,7 +3940,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>13</v>
@@ -3916,7 +3958,7 @@
         <v>13</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>18</v>
@@ -3925,7 +3967,7 @@
         <v>13</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -3933,7 +3975,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>13</v>
@@ -3951,7 +3993,7 @@
         <v>13</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>18</v>
@@ -3960,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -3968,7 +4010,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>13</v>
@@ -3986,7 +4028,7 @@
         <v>13</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>18</v>
@@ -3995,7 +4037,7 @@
         <v>13</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102">
@@ -4003,7 +4045,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>13</v>
@@ -4021,7 +4063,7 @@
         <v>13</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>18</v>
@@ -4030,7 +4072,7 @@
         <v>13</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103">
@@ -4038,7 +4080,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>13</v>
@@ -4056,27 +4098,27 @@
         <v>13</v>
       </c>
       <c r="H103" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>13</v>
@@ -4085,13 +4127,13 @@
         <v>13</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>18</v>
@@ -4100,7 +4142,7 @@
         <v>13</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -4108,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>13</v>
@@ -4126,7 +4168,7 @@
         <v>13</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>18</v>
@@ -4135,7 +4177,7 @@
         <v>13</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
@@ -4143,7 +4185,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>13</v>
@@ -4161,7 +4203,7 @@
         <v>13</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>18</v>
@@ -4170,7 +4212,7 @@
         <v>13</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -4178,7 +4220,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>13</v>
@@ -4196,7 +4238,7 @@
         <v>13</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>18</v>
@@ -4205,33 +4247,33 @@
         <v>13</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B108" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="C108" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>18</v>
@@ -4248,7 +4290,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>13</v>
@@ -4266,7 +4308,7 @@
         <v>13</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>18</v>
@@ -4275,33 +4317,33 @@
         <v>13</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>18</v>
@@ -4310,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -4318,7 +4360,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>13</v>
@@ -4336,7 +4378,7 @@
         <v>13</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>18</v>
@@ -4345,7 +4387,7 @@
         <v>13</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -4353,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>13</v>
@@ -4371,7 +4413,7 @@
         <v>13</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>18</v>
@@ -4380,7 +4422,7 @@
         <v>13</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -4388,7 +4430,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>13</v>
@@ -4406,7 +4448,7 @@
         <v>13</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>18</v>
@@ -4415,7 +4457,7 @@
         <v>13</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -4423,7 +4465,7 @@
         <v>13</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>13</v>
@@ -4441,7 +4483,7 @@
         <v>13</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>18</v>
@@ -4450,7 +4492,7 @@
         <v>13</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
@@ -4458,7 +4500,7 @@
         <v>13</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>13</v>
@@ -4476,7 +4518,7 @@
         <v>13</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>18</v>
@@ -4485,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -4493,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>13</v>
@@ -4511,7 +4553,7 @@
         <v>13</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>18</v>
@@ -4520,7 +4562,7 @@
         <v>13</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
@@ -4528,7 +4570,7 @@
         <v>13</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>13</v>
@@ -4546,7 +4588,7 @@
         <v>13</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>18</v>
@@ -4555,7 +4597,1477 @@
         <v>13</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D150" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
